--- a/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Hypothesis testing lab work.xlsx
+++ b/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/Hypothesis testing lab work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pritishmashakya/Documents/GitHub/College Works/BIM_Study_Materials/3rd Sem/Business Statistics/Lab Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2D0819-9D05-4646-BC93-510B3BF3BEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1ABA44-33FE-CD4F-8A7F-4F5934CB0488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{AE99C788-6879-451D-B165-22AE38A53F87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{AE99C788-6879-451D-B165-22AE38A53F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Z test for mean" sheetId="4" r:id="rId1"/>
@@ -591,11 +591,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -764,43 +771,43 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3055,7 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1465F1-8A5C-4FD4-9B0E-156836D12A36}">
   <dimension ref="B11:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="140" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -3322,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF898245-CC7E-4595-BF42-96C4FA13F069}">
   <dimension ref="B3:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3522,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5608D7DD-CA12-4608-955F-2A7CD0589FDD}">
   <dimension ref="B5:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3757,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207B1681-C5F6-4027-BB9C-BF965771E53F}">
   <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3971,6 +3978,10 @@
         <f>2*_xlfn.NORM.DIST(-2.32711,0,1,TRUE)</f>
         <v>1.9959411416854568E-2</v>
       </c>
+      <c r="D42">
+        <f>2*(1-NORMSDIST(ABS(B32)))</f>
+        <v>1.9959402348293631E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -3988,7 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FEA673-C6BB-304F-AE5B-A8213FB3999C}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
